--- a/biology/Zoologie/Conus_knudseni/Conus_knudseni.xlsx
+++ b/biology/Zoologie/Conus_knudseni/Conus_knudseni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus knudseni est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus knudseni a été décrite pour la première fois en 1982 par le malacologiste Finn Sander[1] dans la publication intitulée « The Veliger »[2],[3].
-Synonymes
-Sandericonus knudseni (Sander, 1982) · non accepté</t>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus knudseni a été décrite pour la première fois en 1982 par le malacologiste Finn Sander dans la publication intitulée « The Veliger »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conus_knudseni</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_knudseni</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sandericonus knudseni (Sander, 1982) · non accepté</t>
         </is>
       </c>
     </row>
